--- a/word_IPA_wikcionario_lh_nh.xlsx
+++ b/word_IPA_wikcionario_lh_nh.xlsx
@@ -53,7 +53,7 @@
     <t>['vɨɾ.dɨ.ˈʎɐ̃w̃']</t>
   </si>
   <si>
-    <t>['Ru.ˈdi.ʎɐ']</t>
+    <t>['ʀu.ˈdi.ʎɐ']</t>
   </si>
   <si>
     <t>['ɐ.ˈʎɐj.ɾɐ']</t>
@@ -170,7 +170,7 @@
     <t>['tɨ.ˈʎa.du']</t>
   </si>
   <si>
-    <t>['ˈtwa.ʎɐ']</t>
+    <t>['ˈtu.a.ʎɐ']</t>
   </si>
   <si>
     <t>['bɐ.ˈta.ʎɐ']</t>
@@ -212,7 +212,7 @@
     <t>['mu.ʎɨ.ˈɾẽ.ɡu']</t>
   </si>
   <si>
-    <t>['ˈpjo.ʎu']</t>
+    <t>['ˈpi.o.ʎu']</t>
   </si>
   <si>
     <t>['ɐ.ˈbɐj.ʎɐ']</t>
@@ -266,7 +266,7 @@
     <t>['vɐ.ˈzi.ʎɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈko.ʎɐ']</t>
+    <t>['ʀɨ.ˈko.ʎɐ']</t>
   </si>
   <si>
     <t>['iʃ.ˈko.ʎɐ']</t>
@@ -293,13 +293,13 @@
     <t>['dɨʃ.fu.ˈʎaɾ']</t>
   </si>
   <si>
-    <t>['ɐ.tɐ.bɐ.ʎwa.dɐ.ˈmẽ.tɨ']</t>
+    <t>['ɐ.tɐ.bɐ.ʎu.a.dɐ.ˈmẽ.tɨ']</t>
   </si>
   <si>
     <t>['tɾɐ.bɐ.ˈʎɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['ɐ.tɐ.bɐ.ˈʎwaɾ']</t>
+    <t>['ɐ.tɐ.bɐ.ˈʎu.aɾ']</t>
   </si>
   <si>
     <t>['mɨɾ.ˈɡu.ʎu']</t>
@@ -320,7 +320,7 @@
     <t>['mɨ.ˈda.ʎɐ']</t>
   </si>
   <si>
-    <t>['ˈRo.ʎɐ']</t>
+    <t>['ˈʀo.ʎɐ']</t>
   </si>
   <si>
     <t>['mi.ˈʎɐ̃w̃']</t>
@@ -329,16 +329,16 @@
     <t>['pɐɾ.ti.ˈʎaɾ']</t>
   </si>
   <si>
-    <t>['Ru.du.ˈva.ʎu']</t>
-  </si>
-  <si>
-    <t>['Rɨ.ˈpo.ʎu']</t>
+    <t>['ʀu.du.ˈva.ʎu']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.ˈpo.ʎu']</t>
   </si>
   <si>
     <t>['bi.ˈʎaɾ']</t>
   </si>
   <si>
-    <t>['sɐ.Rɐ.ˈbu.ʎu']</t>
+    <t>['sɐ.ʀɐ.ˈbu.ʎu']</t>
   </si>
   <si>
     <t>['ˈɡa.ʎu']</t>
@@ -374,7 +374,7 @@
     <t>['ɐ.bɾi.ʎɐ̃.ˈtaɾ']</t>
   </si>
   <si>
-    <t>['Rɨ.ku.ˈʎeɾ']</t>
+    <t>['ʀɨ.ku.ˈʎeɾ']</t>
   </si>
   <si>
     <t>['fɐ.ˈɡu.ʎɐ']</t>
@@ -389,19 +389,19 @@
     <t>['mɨ.ʎu.ˈɾaɾ']</t>
   </si>
   <si>
-    <t>['ɐ.ɡi.ˈʎwaɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.fɨ.Ru.ˈʎaɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.ɡɾi.ˈʎwaɾ']</t>
+    <t>['ɐ.ɡi.ˈʎu.aɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.fɨ.ʀu.ˈʎaɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.ɡɾi.ˈʎu.aɾ']</t>
   </si>
   <si>
     <t>['ɐ.ˈʎjaɾ']</t>
   </si>
   <si>
-    <t>['ɐ.mjɐ.ˈʎaɾ']</t>
+    <t>['ɐ.mi.ɐ.ˈʎaɾ']</t>
   </si>
   <si>
     <t>['ɐ.muɾ.tɐ.ˈʎaɾ']</t>
@@ -434,7 +434,7 @@
     <t>['buɾ.bu.ˈʎaɾ']</t>
   </si>
   <si>
-    <t>['ɐ.Ru.ˈʎaɾ']</t>
+    <t>['ɐ.ʀu.ˈʎaɾ']</t>
   </si>
   <si>
     <t>['ɐɾ.ti.ˈʎaɾ']</t>
@@ -491,13 +491,13 @@
     <t>['bɨ.ˈde.ʎu']</t>
   </si>
   <si>
-    <t>['ˈswa.ʎu']</t>
+    <t>['ˈsu.a.ʎu']</t>
   </si>
   <si>
     <t>['kõ.pɐɾ.ti.ˈʎaɾ']</t>
   </si>
   <si>
-    <t>['Rɐ.ˈʎaɾ']</t>
+    <t>['ʀɐ.ˈʎaɾ']</t>
   </si>
   <si>
     <t>['iʃ.pɐ̃.ˈta.ʎu']</t>
@@ -524,7 +524,7 @@
     <t>['ɡɐ.ˈʎaɾ.du']</t>
   </si>
   <si>
-    <t>['Ru.ˈʎaɾ']</t>
+    <t>['ʀu.ˈʎaɾ']</t>
   </si>
   <si>
     <t>['pɐɾ.ˈti.ʎɐ']</t>
@@ -545,13 +545,13 @@
     <t>['ẽ.ˈka.ʎɨ']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈta.ʎu']</t>
-  </si>
-  <si>
-    <t>['Rɨ.tɐ.ˈʎaɾ']</t>
-  </si>
-  <si>
-    <t>['fɨ.ˈRo.ʎu']</t>
+    <t>['ʀɨ.ˈta.ʎu']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.tɐ.ˈʎaɾ']</t>
+  </si>
+  <si>
+    <t>['fɨ.ˈʀo.ʎu']</t>
   </si>
   <si>
     <t>['pɐ.ˈɾɐj.ʎɐ']</t>
@@ -596,7 +596,7 @@
     <t>['mɨ.ʎu.ɾɐ.ˈmẽ.tu']</t>
   </si>
   <si>
-    <t>['kwɐ.ˈdɾi.ʎɐ']</t>
+    <t>['kʷɐ.ˈdɾi.ʎɐ']</t>
   </si>
   <si>
     <t>['baw.ˈni.ʎɐ']</t>
@@ -740,7 +740,7 @@
     <t>['buɾ.ˈbu.ʎɐ']</t>
   </si>
   <si>
-    <t>['ɡɨ.ˈRi.ʎɐ&lt;text']</t>
+    <t>['ɡɨ.ˈʀi.ʎɐ&lt;text']</t>
   </si>
   <si>
     <t>['mɐ.ɾu.ˈʎaɾ']</t>
@@ -764,7 +764,7 @@
     <t>['fi.ˈʎɔ']</t>
   </si>
   <si>
-    <t>['ɐ.ˈRu.ʎu']</t>
+    <t>['ɐ.ˈʀu.ʎu']</t>
   </si>
   <si>
     <t>['swɐ.ˈʎɐj.ɾu']</t>
@@ -788,10 +788,10 @@
     <t>['bɐ̃.dɐ.ˈʎɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['iʃ.kwɐ.ˈdɾi.ʎɐ']</t>
-  </si>
-  <si>
-    <t>['bu.ˈRa.ʎu']</t>
+    <t>['iʃ.kʷɐ.ˈdɾi.ʎɐ']</t>
+  </si>
+  <si>
+    <t>['bu.ˈʀa.ʎu']</t>
   </si>
   <si>
     <t>['fɐ.ˈu.ʎɐ']</t>
@@ -884,7 +884,7 @@
     <t>['mɐ.ɾɐ.vi.ʎɔ.zɐ.ˈmẽ.tɨ']</t>
   </si>
   <si>
-    <t>['kɐ.Ri.ˈʎɐ̃w̃']</t>
+    <t>['kɐ.ʀi.ˈʎɐ̃w̃']</t>
   </si>
   <si>
     <t>['i.vɐ̃.ˈʒɛ.ʎu']</t>
@@ -1847,7 +1847,7 @@
     <t>['tow.ˈsi.ɲu']</t>
   </si>
   <si>
-    <t>['ˈmwi.ɲu']</t>
+    <t>['ˈmu.i.ɲu']</t>
   </si>
   <si>
     <t>['mɐ.ˈɲɐ̃']</t>
@@ -1943,13 +1943,13 @@
     <t>['dɨ.fi.ˈɲaɾ']</t>
   </si>
   <si>
-    <t>['ɐ.Rɐ.ˈɲaɾ']</t>
-  </si>
-  <si>
-    <t>['Rɨ.ˈzɐj.ɲɐ']</t>
-  </si>
-  <si>
-    <t>['Rɐ.ˈi.ɲɐ']</t>
+    <t>['ɐ.ʀɐ.ˈɲaɾ']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.ˈzɐj.ɲɐ']</t>
+  </si>
+  <si>
+    <t>['ʀɐ.ˈi.ɲɐ']</t>
   </si>
   <si>
     <t>['ɐ.ˈzɐj.ɲɐ']</t>
@@ -1979,7 +1979,7 @@
     <t>['kõ.pɐ.ɲɐj.ˈɾiʒ.mu']</t>
   </si>
   <si>
-    <t>['Rɨ.ku.ɲɨ.si.ˈmẽ.tu']</t>
+    <t>['ʀɨ.ku.ɲɨ.si.ˈmẽ.tu']</t>
   </si>
   <si>
     <t>['su.ˈbɾi.ɲɐ']</t>
@@ -1991,7 +1991,7 @@
     <t>['sɔ.ˈzi.ɲu']</t>
   </si>
   <si>
-    <t>['kɐ.ˈRi.ɲu']</t>
+    <t>['kɐ.ˈʀi.ɲu']</t>
   </si>
   <si>
     <t>['mõ.ˈtɐ.ɲɐ']</t>
@@ -2048,7 +2048,7 @@
     <t>['kaɫ.ˈsi.ɲɐʃ']</t>
   </si>
   <si>
-    <t>['ˈRɐ.ɲu']</t>
+    <t>['ˈʀɐ.ɲu']</t>
   </si>
   <si>
     <t>['dɨ.zɐ.ˈli.ɲu']</t>
@@ -2105,13 +2105,13 @@
     <t>['ˈso.ɲu']</t>
   </si>
   <si>
-    <t>['ɐ.Rɨ.bɐ.ˈɲaɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.Rɨ.ɡɐ.ˈɲaɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.Rɨ.pɐ.ˈɲaɾ']</t>
+    <t>['ɐ.ʀɨ.bɐ.ˈɲaɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.ʀɨ.ɡɐ.ˈɲaɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.ʀɨ.pɐ.ˈɲaɾ']</t>
   </si>
   <si>
     <t>['sɨ.ˈɲo.ɾɐ']</t>
@@ -2141,7 +2141,7 @@
     <t>['ˈku.ɲu']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈbɐ.ɲu']</t>
+    <t>['ʀɨ.ˈbɐ.ɲu']</t>
   </si>
   <si>
     <t>['ˈsɐj.ɲɐ']</t>
@@ -2159,7 +2159,7 @@
     <t>['i.mɐ.ɾɐ.ˈɲaɾ']</t>
   </si>
   <si>
-    <t>['fɨ.ˈRɐj.ɲu']</t>
+    <t>['fɨ.ˈʀɐj.ɲu']</t>
   </si>
   <si>
     <t>['pɨ.ˈɲoɾ']</t>
@@ -2240,7 +2240,7 @@
     <t>['ẽ.fɾu.ˈɲaɾ']</t>
   </si>
   <si>
-    <t>['Ri.ˈzo.ɲu']</t>
+    <t>['ʀi.ˈzo.ɲu']</t>
   </si>
   <si>
     <t>['lɐ.dɐ.ˈi.ɲɐ']</t>
@@ -2345,7 +2345,7 @@
     <t>['ˈlɐ.ɲu']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈmwi.ɲu']</t>
+    <t>['ʀɨ.ˈmu.i.ɲu']</t>
   </si>
   <si>
     <t>['dɨʃ.pɨ.ˈɲaɾ']</t>
@@ -2363,10 +2363,10 @@
     <t>['mõ.tɐ.ˈɲiʃ.tɐ']</t>
   </si>
   <si>
-    <t>['Rɐ.ˈɲu.ɾɐ']</t>
-  </si>
-  <si>
-    <t>['ɐ.Rɐ.ˈɲɐ̃w̃']</t>
+    <t>['ʀɐ.ˈɲu.ɾɐ']</t>
+  </si>
+  <si>
+    <t>['ɐ.ʀɐ.ˈɲɐ̃w̃']</t>
   </si>
   <si>
     <t>['vi.ˈɲe.tɐ']</t>
@@ -2393,7 +2393,7 @@
     <t>['ɔɾ.ˈdɐj.ɲɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.ku.ɲɨ.ˈsi.du']</t>
+    <t>['ʀɨ.ku.ɲɨ.ˈsi.du']</t>
   </si>
   <si>
     <t>['fu.si.ˈɲɐj.ɾɐ']</t>
@@ -2435,7 +2435,7 @@
     <t>['fɐ.ɾi.ˈɲẽ.tu']</t>
   </si>
   <si>
-    <t>['iʃ.pɐ.Ri.ˈɲaɾ']</t>
+    <t>['iʃ.pɐ.ʀi.ˈɲaɾ']</t>
   </si>
   <si>
     <t>abrunho</t>
